--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="B22" s="65">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="B48" s="65">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B49" s="65">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B50" s="65">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B91" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B98" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
